--- a/statistics/HistoricalDistanceData/historical_distance/Q60519479-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60519479-en.xlsx
@@ -31,142 +31,142 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>Trump at 40% support in Utah ahead of 2020 vote; Trails Democrats Booker and Sanders, tied with Warren and Biden in head-to-head matchup</t>
+  </si>
+  <si>
+    <t>Find Your Local League</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
+    <t>Poll: What Utah voters think about Trump, Biden and the peaceful transfer of power</t>
+  </si>
+  <si>
+    <t>Donald Trump holding on to lead over Joe Biden in Utah</t>
+  </si>
+  <si>
+    <t>Utah poll: Would country be better or worse under Hillary Clinton?</t>
+  </si>
+  <si>
+    <t>Trump up 7 over Biden in new Utah poll</t>
+  </si>
+  <si>
     <t>Former presidential candidate Evan McMullin endorses Rep. Ben McAdams in Utah race</t>
   </si>
   <si>
+    <t>Poll: Donald Trump’s lead over Joe Biden holds steady in Utah</t>
+  </si>
+  <si>
+    <t>Utah Outlook 2020 - Q1</t>
+  </si>
+  <si>
+    <t>Voting &amp; Elections Toolkits</t>
+  </si>
+  <si>
+    <t>Utah Outlook 2019 - Quarter 3</t>
+  </si>
+  <si>
+    <t>Utah Outlook 2019 - Quarter 2</t>
+  </si>
+  <si>
     <t>Utah: Election Tools, Deadlines, Dates, Rules, and Links</t>
   </si>
   <si>
-    <t>Utah Outlook 2019 - Quarter 2</t>
-  </si>
-  <si>
-    <t>Utah Outlook 2020 - Q1</t>
-  </si>
-  <si>
-    <t>Utah Outlook 2019 - Quarter 3</t>
-  </si>
-  <si>
-    <t>Donald Trump holding on to lead over Joe Biden in Utah</t>
-  </si>
-  <si>
-    <t>Poll: Donald Trump’s lead over Joe Biden holds steady in Utah</t>
-  </si>
-  <si>
-    <t>Voting &amp; Elections Toolkits</t>
-  </si>
-  <si>
-    <t>Poll: What Utah voters think about Trump, Biden and the peaceful transfer of power</t>
-  </si>
-  <si>
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>Trump at 40% support in Utah ahead of 2020 vote; Trails Democrats Booker and Sanders, tied with Warren and Biden in head-to-head matchup</t>
-  </si>
-  <si>
-    <t>Find Your Local League</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
-  </si>
-  <si>
-    <t>Trump up 7 over Biden in new Utah poll</t>
-  </si>
-  <si>
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
-    <t>Utah poll: Would country be better or worse under Hillary Clinton?</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
+    <t>2019-08-28T15:56:25UTC</t>
+  </si>
+  <si>
+    <t>2020-10-22T22:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-08-06T22:01:00UTC</t>
+  </si>
+  <si>
+    <t>2020-01-29T22:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-10-31T18:01:32UTC</t>
+  </si>
+  <si>
+    <t>2020-04-28T22:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-03-21T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2019-10-23T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2019-07-31T00:00:00UTC</t>
   </si>
   <si>
-    <t>2020-03-21T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2019-10-23T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-08-06T22:01:00UTC</t>
-  </si>
-  <si>
-    <t>2020-04-28T22:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-10-22T22:00:00UTC</t>
-  </si>
-  <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
-    <t>2019-08-28T15:56:25UTC</t>
-  </si>
-  <si>
-    <t>2020-10-31T18:01:32UTC</t>
-  </si>
-  <si>
-    <t>2020-01-29T22:00:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://www.utahpolicy.com/index.php/features/today-at-utah-policy/21444-trump-at-40-support-in-utah-ahead-of-2020-vote-trails-democrats-booker-and-sanders-tied-with-warren-and-biden-in-head-to-head-matchup</t>
+  </si>
+  <si>
+    <t>https://www.lwv.org/local-leagues/find-local-league</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
+    <t>https://www.deseret.com/utah/2020/10/22/21528825/news-poll-utahns-concerned-election-results-being-accepted-by-trump-biden-hinckley</t>
+  </si>
+  <si>
+    <t>https://www.deseret.com/utah/2020/8/6/21357209/donald-trump-holding-onto-lead-over-joe-biden-in-utah-deseret-news-hinckley-institute-poll</t>
+  </si>
+  <si>
+    <t>https://www.deseret.com/utah/2020/1/29/21112311/hillary-clinton-poll-president-donald-trump-impeachment-joe-biden-better-worse</t>
+  </si>
+  <si>
+    <t>https://www.sltrib.com/news/politics/2020/10/31/trump-up-over-biden-new/</t>
+  </si>
+  <si>
     <t>https://www.ksl.com/article/50037884/former-presidential-candidate-evan-mcmullin-endorses-rep-ben-mcadams-in-utah-race</t>
   </si>
   <si>
+    <t>https://www.deseret.com/utah/2020/4/28/21240213/donald-trump-joe-biden-utah-leads-poll-new-utahns-vote-2020-presidential-election-president-race</t>
+  </si>
+  <si>
+    <t>https://issuu.com/saltlakechamber/docs/utah_outlook_20-q1_final</t>
+  </si>
+  <si>
+    <t>https://godort.libguides.com/votingtoolkit/texas</t>
+  </si>
+  <si>
+    <t>https://issuu.com/saltlakechamber/docs/utah_outlook_19-q3_final</t>
+  </si>
+  <si>
+    <t>https://issuu.com/saltlakechamber/docs/utahoutlook_2019-q2_final_digtal_co</t>
+  </si>
+  <si>
     <t>https://www.vote.org/state/utah/</t>
   </si>
   <si>
-    <t>https://issuu.com/saltlakechamber/docs/utahoutlook_2019-q2_final_digtal_co</t>
-  </si>
-  <si>
-    <t>https://issuu.com/saltlakechamber/docs/utah_outlook_20-q1_final</t>
-  </si>
-  <si>
-    <t>https://issuu.com/saltlakechamber/docs/utah_outlook_19-q3_final</t>
-  </si>
-  <si>
-    <t>https://www.deseret.com/utah/2020/8/6/21357209/donald-trump-holding-onto-lead-over-joe-biden-in-utah-deseret-news-hinckley-institute-poll</t>
-  </si>
-  <si>
-    <t>https://www.deseret.com/utah/2020/4/28/21240213/donald-trump-joe-biden-utah-leads-poll-new-utahns-vote-2020-presidential-election-president-race</t>
-  </si>
-  <si>
-    <t>https://godort.libguides.com/votingtoolkit/texas</t>
-  </si>
-  <si>
-    <t>https://www.deseret.com/utah/2020/10/22/21528825/news-poll-utahns-concerned-election-results-being-accepted-by-trump-biden-hinckley</t>
-  </si>
-  <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
   </si>
   <si>
-    <t>https://www.utahpolicy.com/index.php/features/today-at-utah-policy/21444-trump-at-40-support-in-utah-ahead-of-2020-vote-trails-democrats-booker-and-sanders-tied-with-warren-and-biden-in-head-to-head-matchup</t>
-  </si>
-  <si>
-    <t>https://www.lwv.org/local-leagues/find-local-league</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
-  </si>
-  <si>
-    <t>https://www.sltrib.com/news/politics/2020/10/31/trump-up-over-biden-new/</t>
-  </si>
-  <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
-  </si>
-  <si>
-    <t>https://www.deseret.com/utah/2020/1/29/21112311/hillary-clinton-poll-president-donald-trump-impeachment-joe-biden-better-worse</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -616,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -633,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -667,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -684,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -735,7 +735,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -769,7 +769,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -786,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -803,7 +803,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -820,7 +820,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -837,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
